--- a/data_year/zb/文化/文物业基本情况/文物业参观人次.xlsx
+++ b/data_year/zb/文化/文物业基本情况/文物业参观人次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,90 +498,136 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1586.6</v>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>5746.8</v>
+      </c>
       <c r="E2" t="n">
-        <v>8540</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>40679.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26779.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16880.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>52097.9</v>
+      </c>
       <c r="I2" t="n">
-        <v>4319</v>
+        <v>11197.8</v>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46351.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6851</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2179.93</v>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>6236.12</v>
+      </c>
       <c r="E3" t="n">
-        <v>7955</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>47050.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27141.56</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19929.76</v>
+      </c>
+      <c r="H3" t="n">
+        <v>56686.82</v>
+      </c>
       <c r="I3" t="n">
-        <v>3361</v>
+        <v>9441.690000000001</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>194.48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50450.71</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7435.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2446.093</v>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>8558.306</v>
+      </c>
       <c r="E4" t="n">
-        <v>7980</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>56401.076</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33994.122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23503.004</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67058.817</v>
+      </c>
       <c r="I4" t="n">
-        <v>4011</v>
+        <v>10433.435</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>224.309</v>
+      </c>
+      <c r="L4" t="n">
+        <v>58500.513</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7115.607</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>6206</v>
+        <v>63776</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>3240</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -590,580 +636,313 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2591.873</v>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>13741.712</v>
+      </c>
       <c r="E6" t="n">
-        <v>9736</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>71773.80899999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43612.755</v>
+      </c>
+      <c r="G6" t="n">
+        <v>28992.575</v>
+      </c>
+      <c r="H6" t="n">
+        <v>84256.216</v>
+      </c>
       <c r="I6" t="n">
-        <v>4791</v>
+        <v>12181.591</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>300.817</v>
+      </c>
+      <c r="L6" t="n">
+        <v>70514.505</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9059.013000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2257.035</v>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>16849.086</v>
+      </c>
       <c r="E7" t="n">
-        <v>11819</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+        <v>78111.68700000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>47424.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>31897.288</v>
+      </c>
+      <c r="H7" t="n">
+        <v>92508.306</v>
+      </c>
       <c r="I7" t="n">
-        <v>5837</v>
+        <v>14001.054</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>395.565</v>
+      </c>
+      <c r="L7" t="n">
+        <v>75659.22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10929.173</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2682.651</v>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>19260.383</v>
+      </c>
       <c r="E8" t="n">
-        <v>12032.4</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+        <v>85061.03</v>
+      </c>
+      <c r="F8" t="n">
+        <v>53773.43</v>
+      </c>
+      <c r="G8" t="n">
+        <v>34680.049</v>
+      </c>
+      <c r="H8" t="n">
+        <v>101267.448</v>
+      </c>
       <c r="I8" t="n">
-        <v>6411.4</v>
+        <v>15798.108</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>408.31</v>
+      </c>
+      <c r="L8" t="n">
+        <v>82007.065</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10131.318</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2840.445</v>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>22533.995</v>
+      </c>
       <c r="E9" t="n">
-        <v>25625</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+        <v>97172.149</v>
+      </c>
+      <c r="F9" t="n">
+        <v>63153.557</v>
+      </c>
+      <c r="G9" t="n">
+        <v>37877.677</v>
+      </c>
+      <c r="H9" t="n">
+        <v>114772.574</v>
+      </c>
       <c r="I9" t="n">
-        <v>8965</v>
+        <v>17303.601</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>596</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>296.824</v>
+      </c>
+      <c r="L9" t="n">
+        <v>92238.579</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10900.894</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>983</v>
+        <v>2938</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>22927</v>
+      </c>
       <c r="E10" t="n">
-        <v>28328</v>
+        <v>104403.582</v>
       </c>
       <c r="F10" t="n">
-        <v>13172</v>
+        <v>67381</v>
       </c>
       <c r="G10" t="n">
-        <v>16807</v>
+        <v>39300</v>
       </c>
       <c r="H10" t="n">
-        <v>35436</v>
+        <v>122352</v>
       </c>
       <c r="I10" t="n">
-        <v>6956</v>
+        <v>17616</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>152</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="L10" t="n">
+        <v>99425</v>
+      </c>
       <c r="M10" t="n">
-        <v>4474</v>
+        <v>12733</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1256.4</v>
+        <v>2953.316</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>5975.8</v>
+        <v>24598.429</v>
       </c>
       <c r="E11" t="n">
-        <v>32715.6</v>
+        <v>112225.159</v>
       </c>
       <c r="F11" t="n">
-        <v>21442.4</v>
+        <v>71796.66</v>
       </c>
       <c r="G11" t="n">
-        <v>14696.9</v>
+        <v>43051.53</v>
       </c>
       <c r="H11" t="n">
-        <v>43248.2</v>
+        <v>131669.829</v>
       </c>
       <c r="I11" t="n">
-        <v>9205</v>
+        <v>19135.911</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>1327.6</v>
+        <v>308.759</v>
       </c>
       <c r="L11" t="n">
-        <v>37272.4</v>
+        <v>107071.4</v>
       </c>
       <c r="M11" t="n">
-        <v>5852.5</v>
+        <v>13868.323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1586.6</v>
+        <v>614.52</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>5746.8</v>
+        <v>10769.47</v>
       </c>
       <c r="E12" t="n">
-        <v>40679.3</v>
+        <v>52652.35</v>
       </c>
       <c r="F12" t="n">
-        <v>26779.7</v>
+        <v>37015.58</v>
       </c>
       <c r="G12" t="n">
-        <v>16880.6</v>
+        <v>19858.27</v>
       </c>
       <c r="H12" t="n">
-        <v>52097.9</v>
+        <v>61631.7</v>
       </c>
       <c r="I12" t="n">
-        <v>11197.8</v>
+        <v>8740.52</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>220.8</v>
+        <v>238.84</v>
       </c>
       <c r="L12" t="n">
-        <v>46351.1</v>
+        <v>50862.24</v>
       </c>
       <c r="M12" t="n">
-        <v>6851</v>
+        <v>4143.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2179.93</v>
+        <v>1094.71</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>6236.12</v>
+        <v>16430.09</v>
       </c>
       <c r="E13" t="n">
-        <v>47050.68</v>
+        <v>74850.45</v>
       </c>
       <c r="F13" t="n">
-        <v>27141.56</v>
+        <v>50199.28</v>
       </c>
       <c r="G13" t="n">
-        <v>19929.76</v>
+        <v>26634.68</v>
       </c>
       <c r="H13" t="n">
-        <v>56686.82</v>
+        <v>84590.57000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>9441.690000000001</v>
+        <v>9415</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>194.48</v>
+        <v>325.11</v>
       </c>
       <c r="L13" t="n">
-        <v>50450.71</v>
+        <v>68160.66</v>
       </c>
       <c r="M13" t="n">
-        <v>7435.57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2446.093</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>8558.306</v>
-      </c>
-      <c r="E14" t="n">
-        <v>56401.076</v>
-      </c>
-      <c r="F14" t="n">
-        <v>33994.122</v>
-      </c>
-      <c r="G14" t="n">
-        <v>23503.004</v>
-      </c>
-      <c r="H14" t="n">
-        <v>67058.817</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10433.435</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>224.309</v>
-      </c>
-      <c r="L14" t="n">
-        <v>58500.513</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7115.607</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>63776</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2591.873</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>13741.712</v>
-      </c>
-      <c r="E16" t="n">
-        <v>71773.80899999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>43612.755</v>
-      </c>
-      <c r="G16" t="n">
-        <v>28992.575</v>
-      </c>
-      <c r="H16" t="n">
-        <v>84256.216</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12181.591</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>300.817</v>
-      </c>
-      <c r="L16" t="n">
-        <v>70514.505</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9059.013000000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2257.035</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>16849.086</v>
-      </c>
-      <c r="E17" t="n">
-        <v>78111.68700000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>47424.81</v>
-      </c>
-      <c r="G17" t="n">
-        <v>31897.288</v>
-      </c>
-      <c r="H17" t="n">
-        <v>92508.306</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14001.054</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>395.565</v>
-      </c>
-      <c r="L17" t="n">
-        <v>75659.22</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10929.173</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2682.651</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>19260.383</v>
-      </c>
-      <c r="E18" t="n">
-        <v>85061.03</v>
-      </c>
-      <c r="F18" t="n">
-        <v>53773.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>34680.049</v>
-      </c>
-      <c r="H18" t="n">
-        <v>101267.448</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15798.108</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>408.31</v>
-      </c>
-      <c r="L18" t="n">
-        <v>82007.065</v>
-      </c>
-      <c r="M18" t="n">
-        <v>10131.318</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2840.445</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>22533.995</v>
-      </c>
-      <c r="E19" t="n">
-        <v>97172.149</v>
-      </c>
-      <c r="F19" t="n">
-        <v>63153.557</v>
-      </c>
-      <c r="G19" t="n">
-        <v>37877.677</v>
-      </c>
-      <c r="H19" t="n">
-        <v>114772.574</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17303.601</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>296.824</v>
-      </c>
-      <c r="L19" t="n">
-        <v>92238.579</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10900.894</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2938</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>22927</v>
-      </c>
-      <c r="E20" t="n">
-        <v>104403.582</v>
-      </c>
-      <c r="F20" t="n">
-        <v>67381</v>
-      </c>
-      <c r="G20" t="n">
-        <v>39300</v>
-      </c>
-      <c r="H20" t="n">
-        <v>122352</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17616</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>335</v>
-      </c>
-      <c r="L20" t="n">
-        <v>99425</v>
-      </c>
-      <c r="M20" t="n">
-        <v>12733</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2953.316</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>24598.429</v>
-      </c>
-      <c r="E21" t="n">
-        <v>112225.159</v>
-      </c>
-      <c r="F21" t="n">
-        <v>71796.66</v>
-      </c>
-      <c r="G21" t="n">
-        <v>43051.53</v>
-      </c>
-      <c r="H21" t="n">
-        <v>131669.829</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19135.911</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>308.759</v>
-      </c>
-      <c r="L21" t="n">
-        <v>107071.4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>13868.323</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>614.52</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>10769.47</v>
-      </c>
-      <c r="E22" t="n">
-        <v>52652.35</v>
-      </c>
-      <c r="F22" t="n">
-        <v>37015.58</v>
-      </c>
-      <c r="G22" t="n">
-        <v>19858.27</v>
-      </c>
-      <c r="H22" t="n">
-        <v>61631.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8740.52</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>238.84</v>
-      </c>
-      <c r="L22" t="n">
-        <v>50862.24</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4143.33</v>
+        <v>6661.9</v>
       </c>
     </row>
   </sheetData>
